--- a/V1.5 exe/data.xlsx
+++ b/V1.5 exe/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.5 exe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\edetail-tool\V1.5 exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3871D66F-2CB8-4E04-98E5-801005D34B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAD130B-C88C-4AEB-A86D-503A7BFE949F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="3540" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -46,34 +46,34 @@
     <t>popup slides (comma seprtd)</t>
   </si>
   <si>
-    <t>11328_Spravato</t>
-  </si>
-  <si>
-    <t>Materiał informacyjny</t>
-  </si>
-  <si>
-    <t>Założenia programu</t>
-  </si>
-  <si>
-    <t>Jak przystąpić do</t>
-  </si>
-  <si>
     <t>Slide_1</t>
   </si>
   <si>
     <t>Slide_2</t>
   </si>
   <si>
+    <t>11631_Tremfya</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>Safety a key factor</t>
+  </si>
+  <si>
+    <t>What impact do treatment-related</t>
+  </si>
+  <si>
+    <t>A deeper look at the moa</t>
+  </si>
+  <si>
     <t>Slide_3</t>
   </si>
   <si>
     <t>Slide_4</t>
   </si>
   <si>
-    <t>Slide_5</t>
-  </si>
-  <si>
-    <t>Slide_3,Slide_4,Slide_5</t>
+    <t>Slide_5,Slide_6,Slide_7,Slide_8,Slide_9</t>
   </si>
 </sst>
 </file>
@@ -158,13 +158,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -486,16 +490,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,59 +513,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
   </sheetData>

--- a/V1.5 exe/data.xlsx
+++ b/V1.5 exe/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\edetail-tool\V1.5 exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAD130B-C88C-4AEB-A86D-503A7BFE949F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAC99FB-A9EC-490E-8DB5-3105931593AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -46,34 +46,94 @@
     <t>popup slides (comma seprtd)</t>
   </si>
   <si>
+    <t>12607_ERLEADA</t>
+  </si>
+  <si>
+    <t>Push back on progression</t>
+  </si>
+  <si>
+    <t>What is nmCRPC</t>
+  </si>
+  <si>
+    <t>Progression to mCRPC</t>
+  </si>
+  <si>
+    <t>Patients with PC</t>
+  </si>
+  <si>
+    <t>Patients with nmCRPC</t>
+  </si>
+  <si>
+    <t>Extend overall survival</t>
+  </si>
+  <si>
+    <t>ERLEADA provides PFS2 data</t>
+  </si>
+  <si>
+    <t>Proven sustained safety</t>
+  </si>
+  <si>
+    <t>Delay the threat of metastasis</t>
+  </si>
+  <si>
+    <t>Abreviated SmPC</t>
+  </si>
+  <si>
+    <t>Patient pathway to nmCRPC</t>
+  </si>
+  <si>
+    <t>Initiating ERLEADA</t>
+  </si>
+  <si>
     <t>Slide_1</t>
   </si>
   <si>
     <t>Slide_2</t>
   </si>
   <si>
-    <t>11631_Tremfya</t>
-  </si>
-  <si>
-    <t>Rationale</t>
-  </si>
-  <si>
-    <t>Safety a key factor</t>
-  </si>
-  <si>
-    <t>What impact do treatment-related</t>
-  </si>
-  <si>
-    <t>A deeper look at the moa</t>
-  </si>
-  <si>
     <t>Slide_3</t>
   </si>
   <si>
     <t>Slide_4</t>
   </si>
   <si>
-    <t>Slide_5,Slide_6,Slide_7,Slide_8,Slide_9</t>
+    <t>Slide_5</t>
+  </si>
+  <si>
+    <t>Slide_6</t>
+  </si>
+  <si>
+    <t>Slide_7</t>
+  </si>
+  <si>
+    <t>Slide_9</t>
+  </si>
+  <si>
+    <t>Slide_10</t>
+  </si>
+  <si>
+    <t>Slide_11</t>
+  </si>
+  <si>
+    <t>Slide_13</t>
+  </si>
+  <si>
+    <t>Slide_16</t>
+  </si>
+  <si>
+    <t>Slide_18</t>
+  </si>
+  <si>
+    <t>Slide_19</t>
+  </si>
+  <si>
+    <t>Slide_20</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Time to symptomatic progression</t>
   </si>
 </sst>
 </file>
@@ -118,12 +178,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +195,14 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,22 +219,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -484,17 +570,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -515,50 +601,126 @@
     </row>
     <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
